--- a/reports/rafverk.xlsx
+++ b/reports/rafverk.xlsx
@@ -49,9 +49,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,32 +437,137 @@
     <col width="13" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date: 2025-06-19</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Overall Total Hours: 0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Hours Worked</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>johanna</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Reykjavik</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Change lightbulbs</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14:31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23:01</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>Total: 8.5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Overall Total Hours: 8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Task Name</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Total Hours</t>
         </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Change lightbulbs</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
